--- a/Assets/Resources/CSV.data/ItemBasePrice.xlsx
+++ b/Assets/Resources/CSV.data/ItemBasePrice.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Brotatos\Assets\Resources\CSV.data\StatInfo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Project_Brotatos\Assets\Resources\CSV.data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>ItemCode</t>
   </si>
@@ -136,6 +136,60 @@
   </si>
   <si>
     <t>WEIRD_GHOST</t>
+  </si>
+  <si>
+    <t>BABY_ELEPHANT</t>
+  </si>
+  <si>
+    <t>BAT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>FERTILIZER</t>
+  </si>
+  <si>
+    <t>BUTTERFLY</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>CHARCOAL</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOILING_WATER</t>
+  </si>
+  <si>
+    <t>LOST_DUCK</t>
+  </si>
+  <si>
+    <t>LUMBERJACK_SHIRT</t>
+  </si>
+  <si>
+    <t>MUSHROOM</t>
+  </si>
+  <si>
+    <t>MUTATION</t>
+  </si>
+  <si>
+    <t>PEACEFUL_BEE</t>
+  </si>
+  <si>
+    <t>PROPELLER_HAT</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCARED_SAUSAGE</t>
+  </si>
+  <si>
+    <t>SNAKE</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TERRIFIED_ONION</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOXIC_SLUDGE</t>
   </si>
 </sst>
 </file>
@@ -1086,10 +1140,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -1125,103 +1179,103 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="3">
-        <v>18</v>
+        <v>39</v>
+      </c>
+      <c r="B4" s="2">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" s="3">
-        <v>8</v>
+        <v>40</v>
+      </c>
+      <c r="B7" s="2">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="3">
-        <v>25</v>
+        <v>44</v>
+      </c>
+      <c r="B9" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>15</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B11" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="3">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="B13" s="2">
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B14" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="3">
+        <v>43</v>
+      </c>
+      <c r="B15" s="2">
         <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B16" s="3">
         <v>20</v>
@@ -1229,23 +1283,23 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B17" s="3">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="B18" s="3">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B19" s="3">
         <v>25</v>
@@ -1253,119 +1307,119 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="3">
         <v>20</v>
-      </c>
-      <c r="B20" s="3">
-        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B21" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B22" s="3">
-        <v>25</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="3">
-        <v>30</v>
+        <v>41</v>
+      </c>
+      <c r="B23" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B24" s="3">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B25" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B26" s="3">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B27" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B28" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B29" s="3">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B30" s="3">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B31" s="3">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B32" s="3">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B33" s="3">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B34" s="3">
         <v>15</v>
@@ -1373,33 +1427,161 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B35" s="3">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="3">
+        <v>45</v>
+      </c>
+      <c r="B36" s="2">
         <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37" s="3">
-        <v>20</v>
+        <v>46</v>
+      </c>
+      <c r="B37" s="2">
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B38" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B40" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B43" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B45" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B48" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B49" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51" s="3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B52" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B53" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B38" s="3">
+      <c r="B54" s="3">
         <v>12</v>
       </c>
     </row>
